--- a/Outputs/Gas Transfer Velocity/Raymond Paper Method 08_12.xlsx
+++ b/Outputs/Gas Transfer Velocity/Raymond Paper Method 08_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Gas Transfer Velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE88AF2-88A0-49E6-95CD-93545A53CDBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51AB40D-03F6-4E70-8D8F-8E60804A8DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="4070" xr2:uid="{B4C7CFCF-9ECD-4FEA-98DF-8F356BCD35D6}"/>
   </bookViews>
@@ -282,7 +282,7 @@
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>K600 Mid Vs Distance Raymond Method 08/12/2019</a:t>
+              <a:t>K600 Mid Vs Distance Raymond Method 08_12 Log Scale</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -291,8 +291,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14208726671596988"/>
-          <c:y val="4.1666666666666664E-2"/>
+          <c:x val="0.13994362441029276"/>
+          <c:y val="3.472222222222222E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -323,7 +323,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11068418698466551"/>
+          <c:y val="0.13725694444444445"/>
+          <c:w val="0.84759635752926399"/>
+          <c:h val="0.71280101706036747"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -781,6 +791,7 @@
       <c:valAx>
         <c:axId val="1306965807"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2762,14 +2773,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2797,16 +2808,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>412749</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3133,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC8DE64-B842-4E13-A3F2-35A0A9DFA874}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3208,7 +3219,7 @@
         <v>0.08</v>
       </c>
       <c r="D2">
-        <f>C2/2</f>
+        <f t="shared" ref="D2:D35" si="0">C2/2</f>
         <v>0.04</v>
       </c>
       <c r="E2">
@@ -3218,15 +3229,15 @@
         <v>0.14767616191904048</v>
       </c>
       <c r="G2">
-        <f>((E2*F2)^(0.89))*((D2)^(0.54))*5037</f>
+        <f t="shared" ref="G2:G35" si="1">((E2*F2)^(0.89))*((D2)^(0.54))*5037</f>
         <v>517.21383524435794</v>
       </c>
       <c r="H2">
-        <f>((E2*F2)^(0.87))*((D2)^(0.52))*(4433)</f>
+        <f t="shared" ref="H2:H35" si="2">((E2*F2)^(0.87))*((D2)^(0.52))*(4433)</f>
         <v>491.36528666159995</v>
       </c>
       <c r="I2">
-        <f>((E2*F2)^(0.91))*((D2)^(0.56))*(5641)</f>
+        <f t="shared" ref="I2:I35" si="3">((E2*F2)^(0.91))*((D2)^(0.56))*(5641)</f>
         <v>536.59389178964352</v>
       </c>
       <c r="J2">
@@ -3264,7 +3275,7 @@
         <v>0.06</v>
       </c>
       <c r="D3">
-        <f>C3/2</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="E3">
@@ -3274,15 +3285,15 @@
         <v>1.101379724055189E-2</v>
       </c>
       <c r="G3">
-        <f>((E3*F3)^(0.89))*((D3)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>17.320124541771712</v>
       </c>
       <c r="H3">
-        <f>((E3*F3)^(0.87))*((D3)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>17.7998669998134</v>
       </c>
       <c r="I3">
-        <f>((E3*F3)^(0.91))*((D3)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>16.61097761867051</v>
       </c>
       <c r="J3" t="s">
@@ -3292,7 +3303,7 @@
         <v>45</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O35" si="0">LOG(G3)</f>
+        <f t="shared" ref="O3:O35" si="4">LOG(G3)</f>
         <v>1.2385510105225379</v>
       </c>
       <c r="P3" t="s">
@@ -3313,7 +3324,7 @@
         <v>0.1</v>
       </c>
       <c r="D4">
-        <f>C4/2</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="E4">
@@ -3323,15 +3334,15 @@
         <v>0.15129870129870129</v>
       </c>
       <c r="G4">
-        <f>((E4*F4)^(0.89))*((D4)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>298.37925234353702</v>
       </c>
       <c r="H4">
-        <f>((E4*F4)^(0.87))*((D4)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>286.48990230316662</v>
       </c>
       <c r="I4">
-        <f>((E4*F4)^(0.91))*((D4)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>306.29355095244802</v>
       </c>
       <c r="J4">
@@ -3343,7 +3354,7 @@
         <v>0.23893136335352741</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.4747686213945297</v>
       </c>
       <c r="P4">
@@ -3366,7 +3377,7 @@
         <v>0.12</v>
       </c>
       <c r="D5">
-        <f>C5/2</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="E5">
@@ -3376,19 +3387,19 @@
         <v>9.4167252283907238E-2</v>
       </c>
       <c r="G5">
-        <f>((E5*F5)^(0.89))*((D5)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>146.54939346312253</v>
       </c>
       <c r="H5">
-        <f>((E5*F5)^(0.87))*((D5)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>142.77130496339538</v>
       </c>
       <c r="I5">
-        <f>((E5*F5)^(0.91))*((D5)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>148.26445682801116</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.1659840253253648</v>
       </c>
     </row>
@@ -3403,7 +3414,7 @@
         <v>0.05</v>
       </c>
       <c r="D6">
-        <f>C6/2</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E6">
@@ -3413,19 +3424,19 @@
         <v>2.6709279762584182E-2</v>
       </c>
       <c r="G6">
-        <f>((E6*F6)^(0.89))*((D6)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>61.795307952795241</v>
       </c>
       <c r="H6">
-        <f>((E6*F6)^(0.87))*((D6)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>61.805971516598596</v>
       </c>
       <c r="I6">
-        <f>((E6*F6)^(0.91))*((D6)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>60.896242158116344</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.7909555008563052</v>
       </c>
     </row>
@@ -3440,7 +3451,7 @@
         <v>0.09</v>
       </c>
       <c r="D7">
-        <f>C7/2</f>
+        <f t="shared" si="0"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E7">
@@ -3450,19 +3461,19 @@
         <v>0.10451977401129944</v>
       </c>
       <c r="G7">
-        <f>((E7*F7)^(0.89))*((D7)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>576.65509446911756</v>
       </c>
       <c r="H7">
-        <f>((E7*F7)^(0.87))*((D7)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>545.99220231929428</v>
       </c>
       <c r="I7">
-        <f>((E7*F7)^(0.91))*((D7)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>600.28260056568934</v>
       </c>
       <c r="O7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.7609161331629481</v>
       </c>
     </row>
@@ -3477,7 +3488,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8">
-        <f>C8/2</f>
+        <f t="shared" si="0"/>
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E8">
@@ -3487,19 +3498,19 @@
         <v>0.20273864643877448</v>
       </c>
       <c r="G8">
-        <f>((E8*F8)^(0.89))*((D8)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>607.24336363218538</v>
       </c>
       <c r="H8">
-        <f>((E8*F8)^(0.87))*((D8)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>575.42285179308749</v>
       </c>
       <c r="I8">
-        <f>((E8*F8)^(0.91))*((D8)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>631.60910027713248</v>
       </c>
       <c r="O8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.7833627772381058</v>
       </c>
     </row>
@@ -3514,7 +3525,7 @@
         <v>0.04</v>
       </c>
       <c r="D9">
-        <f>C9/2</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="E9">
@@ -3524,19 +3535,19 @@
         <v>0.24304840370751801</v>
       </c>
       <c r="G9">
-        <f>((E9*F9)^(0.89))*((D9)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>1014.733649106093</v>
       </c>
       <c r="H9">
-        <f>((E9*F9)^(0.87))*((D9)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>954.72199918744786</v>
       </c>
       <c r="I9">
-        <f>((E9*F9)^(0.91))*((D9)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>1063.0094454421203</v>
       </c>
       <c r="O9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.0063520620487374</v>
       </c>
     </row>
@@ -3551,7 +3562,7 @@
         <v>0.08</v>
       </c>
       <c r="D10">
-        <f>C10/2</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="E10">
@@ -3561,19 +3572,19 @@
         <v>8.4557280738564833E-2</v>
       </c>
       <c r="G10">
-        <f>((E10*F10)^(0.89))*((D10)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>611.523202581595</v>
       </c>
       <c r="H10">
-        <f>((E10*F10)^(0.87))*((D10)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>578.77879090039812</v>
       </c>
       <c r="I10">
-        <f>((E10*F10)^(0.91))*((D10)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>636.82954046716372</v>
       </c>
       <c r="O10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.7864129398056368</v>
       </c>
     </row>
@@ -3588,7 +3599,7 @@
         <v>0.04</v>
       </c>
       <c r="D11">
-        <f>C11/2</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="E11">
@@ -3598,19 +3609,19 @@
         <v>0.27696871628910458</v>
       </c>
       <c r="G11">
-        <f>((E11*F11)^(0.89))*((D11)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>1918.0633225522581</v>
       </c>
       <c r="H11">
-        <f>((E11*F11)^(0.87))*((D11)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>1778.9923520207415</v>
       </c>
       <c r="I11">
-        <f>((E11*F11)^(0.91))*((D11)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>2038.2700817463365</v>
       </c>
       <c r="O11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.28286294078098</v>
       </c>
     </row>
@@ -3625,7 +3636,7 @@
         <v>0.04</v>
       </c>
       <c r="D12">
-        <f>C12/2</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="E12">
@@ -3635,19 +3646,19 @@
         <v>0.13585017835909632</v>
       </c>
       <c r="G12">
-        <f>((E12*F12)^(0.89))*((D12)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>771.56609552036844</v>
       </c>
       <c r="H12">
-        <f>((E12*F12)^(0.87))*((D12)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>730.41836982097914</v>
       </c>
       <c r="I12">
-        <f>((E12*F12)^(0.91))*((D12)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>803.31247827863604</v>
       </c>
       <c r="O12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.8873731354416154</v>
       </c>
     </row>
@@ -3662,7 +3673,7 @@
         <v>0.04</v>
       </c>
       <c r="D13">
-        <f>C13/2</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="E13">
@@ -3672,19 +3683,19 @@
         <v>7.3017299483262202E-2</v>
       </c>
       <c r="G13">
-        <f>((E13*F13)^(0.89))*((D13)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>505.25955122681648</v>
       </c>
       <c r="H13">
-        <f>((E13*F13)^(0.87))*((D13)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>482.88613703959044</v>
       </c>
       <c r="I13">
-        <f>((E13*F13)^(0.91))*((D13)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>521.06782331354248</v>
       </c>
       <c r="O13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.7035145319961393</v>
       </c>
     </row>
@@ -3699,7 +3710,7 @@
         <v>0.03</v>
       </c>
       <c r="D14">
-        <f>C14/2</f>
+        <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E14">
@@ -3709,19 +3720,19 @@
         <v>0.23847965018499831</v>
       </c>
       <c r="G14">
-        <f>((E14*F14)^(0.89))*((D14)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>947.29935039376801</v>
       </c>
       <c r="H14">
-        <f>((E14*F14)^(0.87))*((D14)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>894.67621380734306</v>
       </c>
       <c r="I14">
-        <f>((E14*F14)^(0.91))*((D14)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>988.59524470328961</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9764872394898214</v>
       </c>
     </row>
@@ -3736,7 +3747,7 @@
         <v>0.06</v>
       </c>
       <c r="D15">
-        <f>C15/2</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="E15">
@@ -3746,19 +3757,19 @@
         <v>0.31192818919385462</v>
       </c>
       <c r="G15">
-        <f>((E15*F15)^(0.89))*((D15)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>3259.0179627228304</v>
       </c>
       <c r="H15">
-        <f>((E15*F15)^(0.87))*((D15)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>2977.4147680762967</v>
       </c>
       <c r="I15">
-        <f>((E15*F15)^(0.91))*((D15)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>3515.9614078984523</v>
       </c>
       <c r="O15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.5130867541717739</v>
       </c>
     </row>
@@ -3773,7 +3784,7 @@
         <v>0.05</v>
       </c>
       <c r="D16">
-        <f>C16/2</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E16">
@@ -3783,19 +3794,19 @@
         <v>0.23471278567016676</v>
       </c>
       <c r="G16">
-        <f>((E16*F16)^(0.89))*((D16)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>1993.61949301959</v>
       </c>
       <c r="H16">
-        <f>((E16*F16)^(0.87))*((D16)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>1844.2259746189857</v>
       </c>
       <c r="I16">
-        <f>((E16*F16)^(0.91))*((D16)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>2124.1263070390842</v>
       </c>
       <c r="O16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.2996422714023579</v>
       </c>
     </row>
@@ -3810,7 +3821,7 @@
         <v>0.05</v>
       </c>
       <c r="D17">
-        <f>C17/2</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E17">
@@ -3820,19 +3831,19 @@
         <v>5.3872053872053877E-2</v>
       </c>
       <c r="G17">
-        <f>((E17*F17)^(0.89))*((D17)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>490.18318783643542</v>
       </c>
       <c r="H17">
-        <f>((E17*F17)^(0.87))*((D17)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>467.97434709241918</v>
       </c>
       <c r="I17">
-        <f>((E17*F17)^(0.91))*((D17)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>506.06314015444701</v>
       </c>
       <c r="O17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.6903584118628672</v>
       </c>
     </row>
@@ -3847,7 +3858,7 @@
         <v>0.04</v>
       </c>
       <c r="D18">
-        <f>C18/2</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="E18">
@@ -3857,19 +3868,19 @@
         <v>0.2355652821754517</v>
       </c>
       <c r="G18">
-        <f>((E18*F18)^(0.89))*((D18)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>1467.4134961624629</v>
       </c>
       <c r="H18">
-        <f>((E18*F18)^(0.87))*((D18)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>1369.2330294139419</v>
       </c>
       <c r="I18">
-        <f>((E18*F18)^(0.91))*((D18)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>1550.020994432381</v>
       </c>
       <c r="O18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.1665525090701783</v>
       </c>
     </row>
@@ -3884,7 +3895,7 @@
         <v>0.05</v>
       </c>
       <c r="D19">
-        <f>C19/2</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E19">
@@ -3894,19 +3905,19 @@
         <v>0.43119847812301842</v>
       </c>
       <c r="G19">
-        <f>((E19*F19)^(0.89))*((D19)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>3230.227272794556</v>
       </c>
       <c r="H19">
-        <f>((E19*F19)^(0.87))*((D19)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>2955.9360684215744</v>
       </c>
       <c r="I19">
-        <f>((E19*F19)^(0.91))*((D19)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>3479.2132741483074</v>
       </c>
       <c r="O19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.5092330795596447</v>
       </c>
     </row>
@@ -3921,7 +3932,7 @@
         <v>0.08</v>
       </c>
       <c r="D20">
-        <f>C20/2</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="E20">
@@ -3931,19 +3942,19 @@
         <v>0.64762893734856353</v>
       </c>
       <c r="G20">
-        <f>((E20*F20)^(0.89))*((D20)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>1262.7066825460765</v>
       </c>
       <c r="H20">
-        <f>((E20*F20)^(0.87))*((D20)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>1175.7797543701788</v>
       </c>
       <c r="I20">
-        <f>((E20*F20)^(0.91))*((D20)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>1336.5613836348311</v>
       </c>
       <c r="O20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.1013024788641421</v>
       </c>
     </row>
@@ -3958,7 +3969,7 @@
         <v>0.08</v>
       </c>
       <c r="D21">
-        <f>C21/2</f>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
       <c r="E21">
@@ -3968,19 +3979,19 @@
         <v>0.41938787120263965</v>
       </c>
       <c r="G21">
-        <f>((E21*F21)^(0.89))*((D21)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>1620.2407877192534</v>
       </c>
       <c r="H21">
-        <f>((E21*F21)^(0.87))*((D21)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>1500.2715266949308</v>
       </c>
       <c r="I21">
-        <f>((E21*F21)^(0.91))*((D21)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>1724.6428967203656</v>
       </c>
       <c r="O21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.2095795608432458</v>
       </c>
     </row>
@@ -3995,7 +4006,7 @@
         <v>0.06</v>
       </c>
       <c r="D22">
-        <f>C22/2</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="E22">
@@ -4005,19 +4016,19 @@
         <v>1.2202498356344511</v>
       </c>
       <c r="G22">
-        <f>((E22*F22)^(0.89))*((D22)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>824.20008746408985</v>
       </c>
       <c r="H22">
-        <f>((E22*F22)^(0.87))*((D22)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>776.60858346890836</v>
       </c>
       <c r="I22">
-        <f>((E22*F22)^(0.91))*((D22)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>862.13059126924998</v>
       </c>
       <c r="O22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.91603265627589</v>
       </c>
     </row>
@@ -4032,7 +4043,7 @@
         <v>0.05</v>
       </c>
       <c r="D23">
-        <f>C23/2</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E23">
@@ -4042,19 +4053,19 @@
         <v>9.4745366204786741E-2</v>
       </c>
       <c r="G23">
-        <f>((E23*F23)^(0.89))*((D23)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>156.35538841423028</v>
       </c>
       <c r="H23">
-        <f>((E23*F23)^(0.87))*((D23)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>153.15390462894135</v>
       </c>
       <c r="I23">
-        <f>((E23*F23)^(0.91))*((D23)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>157.32855769029121</v>
       </c>
       <c r="O23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.1941128527567071</v>
       </c>
     </row>
@@ -4069,7 +4080,7 @@
         <v>0.04</v>
       </c>
       <c r="D24">
-        <f>C24/2</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="E24">
@@ -4079,19 +4090,19 @@
         <v>0.34698155394074903</v>
       </c>
       <c r="G24">
-        <f>((E24*F24)^(0.89))*((D24)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>1794.0216387876956</v>
       </c>
       <c r="H24">
-        <f>((E24*F24)^(0.87))*((D24)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>1666.446191471792</v>
       </c>
       <c r="I24">
-        <f>((E24*F24)^(0.91))*((D24)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>1903.5925140451907</v>
       </c>
       <c r="O24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.2538276770299328</v>
       </c>
     </row>
@@ -4106,7 +4117,7 @@
         <v>0.05</v>
       </c>
       <c r="D25">
-        <f>C25/2</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E25">
@@ -4116,19 +4127,19 @@
         <v>0.15407703851925961</v>
       </c>
       <c r="G25">
-        <f>((E25*F25)^(0.89))*((D25)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>753.65438140848528</v>
       </c>
       <c r="H25">
-        <f>((E25*F25)^(0.87))*((D25)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>712.58684427474134</v>
       </c>
       <c r="I25">
-        <f>((E25*F25)^(0.91))*((D25)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>785.62733478848315</v>
       </c>
       <c r="O25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.8771722282847119</v>
       </c>
     </row>
@@ -4143,7 +4154,7 @@
         <v>0.02</v>
       </c>
       <c r="D26">
-        <f>C26/2</f>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="E26">
@@ -4153,19 +4164,19 @@
         <v>0.2072379651758279</v>
       </c>
       <c r="G26">
-        <f>((E26*F26)^(0.89))*((D26)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>865.24525894668193</v>
       </c>
       <c r="H26">
-        <f>((E26*F26)^(0.87))*((D26)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>821.4612702029732</v>
       </c>
       <c r="I26">
-        <f>((E26*F26)^(0.91))*((D26)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>898.2584130918907</v>
       </c>
       <c r="O26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.9371392282852229</v>
       </c>
     </row>
@@ -4180,7 +4191,7 @@
         <v>0.04</v>
       </c>
       <c r="D27">
-        <f>C27/2</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="E27">
@@ -4190,19 +4201,19 @@
         <v>0.14884068810770382</v>
       </c>
       <c r="G27">
-        <f>((E27*F27)^(0.89))*((D27)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>1020.7555338173415</v>
       </c>
       <c r="H27">
-        <f>((E27*F27)^(0.87))*((D27)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>960.26005909738581</v>
       </c>
       <c r="I27">
-        <f>((E27*F27)^(0.91))*((D27)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>1069.4600108820628</v>
       </c>
       <c r="O27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.0089217430401201</v>
       </c>
     </row>
@@ -4217,7 +4228,7 @@
         <v>0.03</v>
       </c>
       <c r="D28">
-        <f>C28/2</f>
+        <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E28">
@@ -4227,19 +4238,19 @@
         <v>0.17266851338873501</v>
       </c>
       <c r="G28">
-        <f>((E28*F28)^(0.89))*((D28)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>2032.2444996111058</v>
       </c>
       <c r="H28">
-        <f>((E28*F28)^(0.87))*((D28)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>1886.7111838359633</v>
       </c>
       <c r="I28">
-        <f>((E28*F28)^(0.91))*((D28)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>2157.5278928927346</v>
       </c>
       <c r="O28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.3079759567832001</v>
       </c>
     </row>
@@ -4254,7 +4265,7 @@
         <v>0.06</v>
       </c>
       <c r="D29">
-        <f>C29/2</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="E29">
@@ -4264,19 +4275,19 @@
         <v>0.27751769188894937</v>
       </c>
       <c r="G29">
-        <f>((E29*F29)^(0.89))*((D29)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>3376.6973268237821</v>
       </c>
       <c r="H29">
-        <f>((E29*F29)^(0.87))*((D29)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>3082.4676659621364</v>
       </c>
       <c r="I29">
-        <f>((E29*F29)^(0.91))*((D29)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>3645.8237325665559</v>
       </c>
       <c r="O29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.5284921340196695</v>
       </c>
     </row>
@@ -4291,7 +4302,7 @@
         <v>0.05</v>
       </c>
       <c r="D30">
-        <f>C30/2</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E30">
@@ -4301,19 +4312,19 @@
         <v>3.8104543234000976E-2</v>
       </c>
       <c r="G30">
-        <f>((E30*F30)^(0.89))*((D30)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>360.17551316878132</v>
       </c>
       <c r="H30">
-        <f>((E30*F30)^(0.87))*((D30)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>346.24662931179535</v>
       </c>
       <c r="I30">
-        <f>((E30*F30)^(0.91))*((D30)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>369.27741096667921</v>
       </c>
       <c r="O30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.5565141836163106</v>
       </c>
     </row>
@@ -4328,7 +4339,7 @@
         <v>0.05</v>
       </c>
       <c r="D31">
-        <f>C31/2</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E31">
@@ -4338,19 +4349,19 @@
         <v>5.1910828025477709E-2</v>
       </c>
       <c r="G31">
-        <f>((E31*F31)^(0.89))*((D31)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>403.79539030018606</v>
       </c>
       <c r="H31">
-        <f>((E31*F31)^(0.87))*((D31)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>387.18369544148982</v>
       </c>
       <c r="I31">
-        <f>((E31*F31)^(0.91))*((D31)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>415.06449234035261</v>
       </c>
       <c r="O31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.6061613567606181</v>
       </c>
     </row>
@@ -4365,7 +4376,7 @@
         <v>0.11</v>
       </c>
       <c r="D32">
-        <f>C32/2</f>
+        <f t="shared" si="0"/>
         <v>5.5E-2</v>
       </c>
       <c r="E32">
@@ -4375,19 +4386,19 @@
         <v>0.26229508196721313</v>
       </c>
       <c r="G32">
-        <f>((E32*F32)^(0.89))*((D32)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>925.05688761015404</v>
       </c>
       <c r="H32">
-        <f>((E32*F32)^(0.87))*((D32)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>865.24856158244449</v>
       </c>
       <c r="I32">
-        <f>((E32*F32)^(0.91))*((D32)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>974.77846363010531</v>
       </c>
       <c r="O32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2.966168441080113</v>
       </c>
     </row>
@@ -4402,7 +4413,7 @@
         <v>0.05</v>
       </c>
       <c r="D33">
-        <f>C33/2</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E33">
@@ -4412,19 +4423,19 @@
         <v>1.1793519216277317</v>
       </c>
       <c r="G33">
-        <f>((E33*F33)^(0.89))*((D33)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>11702.620853626502</v>
       </c>
       <c r="H33">
-        <f>((E33*F33)^(0.87))*((D33)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>10403.564629815379</v>
       </c>
       <c r="I33">
-        <f>((E33*F33)^(0.91))*((D33)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>12974.601547212062</v>
       </c>
       <c r="O33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.0682831348062809</v>
       </c>
     </row>
@@ -4439,7 +4450,7 @@
         <v>0.06</v>
       </c>
       <c r="D34">
-        <f>C34/2</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="E34">
@@ -4449,19 +4460,19 @@
         <v>0.24884560490303081</v>
       </c>
       <c r="G34">
-        <f>((E34*F34)^(0.89))*((D34)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>3303.4693229593531</v>
       </c>
       <c r="H34">
-        <f>((E34*F34)^(0.87))*((D34)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>3017.1065531030995</v>
       </c>
       <c r="I34">
-        <f>((E34*F34)^(0.91))*((D34)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>3565.002489966651</v>
       </c>
       <c r="O34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.5189702781698147</v>
       </c>
     </row>
@@ -4476,7 +4487,7 @@
         <v>0.05</v>
       </c>
       <c r="D35">
-        <f>C35/2</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E35">
@@ -4486,19 +4497,19 @@
         <v>0.10066327480908546</v>
       </c>
       <c r="G35">
-        <f>((E35*F35)^(0.89))*((D35)^(0.54))*5037</f>
+        <f t="shared" si="1"/>
         <v>1114.2466387081442</v>
       </c>
       <c r="H35">
-        <f>((E35*F35)^(0.87))*((D35)^(0.52))*(4433)</f>
+        <f t="shared" si="2"/>
         <v>1044.313686062359</v>
       </c>
       <c r="I35">
-        <f>((E35*F35)^(0.91))*((D35)^(0.56))*(5641)</f>
+        <f t="shared" si="3"/>
         <v>1171.7679767338693</v>
       </c>
       <c r="O35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.0469813326458453</v>
       </c>
     </row>
